--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Periods.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Periods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\payroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA8F77-D0E7-4F29-B424-7DD7B1864C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7AECC6-2733-48E9-8D17-2A5B608ED81A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{A086A214-8C7C-4896-B10D-F48DD57DAF75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A086A214-8C7C-4896-B10D-F48DD57DAF75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
   <si>
     <t>company_code</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>เดือน = M /วัน =D</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>เลขที่  (null)</t>
@@ -800,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD36FCE7-A51F-4582-9B6F-55803B5528A6}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -846,39 +843,13 @@
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F3" s="1"/>
@@ -908,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96928A82-A8BF-404F-BE21-1DA2DB6189A7}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -930,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>21</v>
@@ -942,7 +913,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>93</v>
@@ -951,13 +922,13 @@
         <v>94</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>92</v>

--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Periods.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Periods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7AECC6-2733-48E9-8D17-2A5B608ED81A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C5DEFC-B213-4DE6-BE33-A4A3A3323B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A086A214-8C7C-4896-B10D-F48DD57DAF75}"/>
   </bookViews>
@@ -798,7 +798,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Periods.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Periods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C5DEFC-B213-4DE6-BE33-A4A3A3323B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577A691-8D94-4BAA-BE9A-E98F50A8E062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A086A214-8C7C-4896-B10D-F48DD57DAF75}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="103">
   <si>
     <t>company_code</t>
   </si>
@@ -91,9 +91,6 @@
     <t>ปี</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>รหัสบริษัท</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>เดือน = M /วัน =D</t>
   </si>
   <si>
-    <t>เลขที่  (null)</t>
-  </si>
-  <si>
     <t>อันดับ  ความยาวไม่เกิน 2 ตัว</t>
   </si>
   <si>
@@ -329,13 +323,25 @@
   </si>
   <si>
     <t>วันที่จ่าย dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>Type กำหนดไว้เป็นค่า  PAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +370,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +406,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -429,11 +447,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -475,9 +494,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD36FCE7-A51F-4582-9B6F-55803B5528A6}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,7 +836,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -870,6 +896,11 @@
       <c r="F8" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{DF1427E4-FDCD-4734-99F0-0BDAA450CC7B}">
+      <formula1>"M,D"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -877,15 +908,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96928A82-A8BF-404F-BE21-1DA2DB6189A7}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="14" customWidth="1"/>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
     <col min="4" max="4" width="19.453125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" customWidth="1"/>
@@ -893,55 +925,58 @@
     <col min="8" max="8" width="23.90625" customWidth="1"/>
     <col min="9" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="47.81640625" customWidth="1"/>
-    <col min="13" max="15" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="15" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="L1" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -972,8 +1007,14 @@
         <v>11</v>
       </c>
       <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -987,28 +1028,30 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1031,19 +1074,21 @@
         <v>18</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N4"/>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1057,28 +1102,30 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1092,28 +1139,30 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1127,28 +1176,30 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N7"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1162,28 +1213,30 @@
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1197,28 +1250,30 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1232,28 +1287,30 @@
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N10"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1267,28 +1324,30 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1302,28 +1361,30 @@
         <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1337,28 +1398,30 @@
         <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1372,28 +1435,38 @@
         <v>15</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="N14"/>
+      <c r="O14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D14" xr:uid="{F3A243B8-DDF3-4826-9642-C810DBEC87B0}">
+      <formula1>"M,D"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Periods.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Periods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577A691-8D94-4BAA-BE9A-E98F50A8E062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F005DE80-9640-46BF-9B36-67B746FEEE46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A086A214-8C7C-4896-B10D-F48DD57DAF75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{A086A214-8C7C-4896-B10D-F48DD57DAF75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>company_code</t>
   </si>
@@ -310,9 +310,6 @@
     <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 200  ตัว</t>
   </si>
   <si>
-    <t>เดือน = M /วัน =D</t>
-  </si>
-  <si>
     <t>อันดับ  ความยาวไม่เกิน 2 ตัว</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>Type กำหนดไว้เป็นค่า  PAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(เดือน = M) (วัน =D) (T= เวลา) </t>
   </si>
 </sst>
 </file>
@@ -494,11 +494,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD36FCE7-A51F-4582-9B6F-55803B5528A6}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,15 +910,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96928A82-A8BF-404F-BE21-1DA2DB6189A7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" customWidth="1"/>
     <col min="7" max="7" width="22.90625" customWidth="1"/>
@@ -934,19 +934,19 @@
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>92</v>
@@ -955,19 +955,19 @@
         <v>93</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1007,11 +1007,11 @@
         <v>11</v>
       </c>
       <c r="M2" s="11"/>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1462,9 +1462,12 @@
   <mergeCells count="1">
     <mergeCell ref="N1:O1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D14" xr:uid="{F3A243B8-DDF3-4826-9642-C810DBEC87B0}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D14" xr:uid="{F3A243B8-DDF3-4826-9642-C810DBEC87B0}">
       <formula1>"M,D"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{061B6861-787C-45F8-8498-75F7EF8402B1}">
+      <formula1>"M,D,T"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
